--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_09-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_09-32.xlsx
@@ -32,6 +32,12 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -50,7 +56,7 @@
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -71,6 +77,18 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -80,7 +98,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-4:0</t>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -694,7 +718,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10">
@@ -720,7 +744,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
@@ -740,13 +764,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
@@ -758,7 +782,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -766,17 +790,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>1.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -798,11 +822,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>16</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -824,11 +848,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>169.19999999999999</v>
+        <v>16</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -850,7 +874,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>108</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
@@ -876,7 +900,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
@@ -902,11 +926,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -928,11 +952,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -954,45 +978,149 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="26.25" customHeight="1">
-      <c r="K15" s="11">
-        <v>616.20000000000005</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="12">
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c t="s" r="F16" s="13">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
         <v>29</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c t="s" r="I16" s="15">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
         <v>30</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>31</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>72</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
+        <v>33</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>45</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>35</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>30</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="K19" s="11">
+        <v>977.12</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="12">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c t="s" r="F20" s="13">
+        <v>37</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c t="s" r="I20" s="15">
+        <v>38</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="56">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1033,10 +1161,22 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:N20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
